--- a/ZAL.DE.xlsx
+++ b/ZAL.DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264406F5-FEF6-4751-97B0-5A7616644654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661A132B-8F38-4249-BB23-8EBAF6E0528D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{98C648A9-E26D-4C03-ABFB-F82A267C3134}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{98C648A9-E26D-4C03-ABFB-F82A267C3134}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -668,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBCB31F-2D56-46E3-B670-4DC6239CE78A}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +690,7 @@
         <v>4</v>
       </c>
       <c r="I2">
-        <v>32.299999999999997</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -698,10 +698,10 @@
         <v>5</v>
       </c>
       <c r="I3" s="6">
-        <v>259.10000000000002</v>
+        <v>260.3</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -713,7 +713,7 @@
       </c>
       <c r="I4" s="6">
         <f>+I2*I3</f>
-        <v>8368.93</v>
+        <v>6174.3159999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -724,10 +724,10 @@
         <v>7</v>
       </c>
       <c r="I5" s="6">
-        <v>1959.4</v>
+        <v>2183</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -735,11 +735,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="6">
-        <f>396.6+213+0.2+472.6</f>
-        <v>1082.4000000000001</v>
+        <f>475.5+11.3+399+206.4</f>
+        <v>1092.2</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
       </c>
       <c r="I7" s="6">
         <f>+I4-I5+I6</f>
-        <v>7491.93</v>
+        <v>5083.5159999999996</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -788,11 +788,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055B6BCF-56F9-4A6F-A0B9-70CA233D4BF4}">
   <dimension ref="A1:BM464"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomRight" activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,7 +884,9 @@
       <c r="K3" s="6">
         <v>3945.7</v>
       </c>
-      <c r="L3" s="6"/>
+      <c r="L3" s="6">
+        <v>4058.1</v>
+      </c>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -974,7 +976,9 @@
       <c r="K4" s="6">
         <v>52.4</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="L4" s="6">
+        <v>52.9</v>
+      </c>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -1064,7 +1068,9 @@
       <c r="K5" s="6">
         <v>58.5</v>
       </c>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6">
+        <v>65</v>
+      </c>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -1169,28 +1175,31 @@
         <f t="shared" si="0"/>
         <v>75.299618320610691</v>
       </c>
-      <c r="L6" s="6"/>
+      <c r="L6" s="6">
+        <f t="shared" ref="L6" si="1">+L3/L4</f>
+        <v>76.71266540642722</v>
+      </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6">
-        <f t="shared" ref="P6:T6" si="1">+P3/P4</f>
+        <f t="shared" ref="P6:T6" si="2">+P3/P4</f>
         <v>276.38242894056845</v>
       </c>
       <c r="Q6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>295.51958762886602</v>
       </c>
       <c r="R6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>288.841796875</v>
       </c>
       <c r="S6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>294.97983870967744</v>
       </c>
       <c r="T6" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>295.29343629343634</v>
       </c>
       <c r="U6" s="6"/>
@@ -1244,27 +1253,27 @@
         <v>42</v>
       </c>
       <c r="C7" s="6" t="e">
-        <f t="shared" ref="C7:H7" si="2">+C5/C4</f>
+        <f t="shared" ref="C7:H7" si="3">+C5/C4</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D7" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0878243512974051</v>
       </c>
       <c r="F7" s="6" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1151515151515152</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2730923694779117</v>
       </c>
       <c r="I7" s="6">
@@ -1272,35 +1281,38 @@
         <v>1.151093439363817</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" ref="J7:T7" si="3">+J5/J4</f>
+        <f t="shared" ref="J7:T7" si="4">+J5/J4</f>
         <v>1.4382239382239383</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.116412213740458</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6">
+        <f t="shared" ref="L7" si="5">+L5/L4</f>
+        <v>1.2287334593572778</v>
+      </c>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.79328165374677</v>
       </c>
       <c r="Q7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.2</v>
       </c>
       <c r="R7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.099609375</v>
       </c>
       <c r="S7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.935483870967742</v>
       </c>
       <c r="T7" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.8455598455598459</v>
       </c>
       <c r="U7" s="6"/>
@@ -1354,27 +1366,27 @@
         <v>43</v>
       </c>
       <c r="C8" s="6" t="e">
-        <f t="shared" ref="C8:H8" si="4">+C3/C5</f>
+        <f t="shared" ref="C8:H8" si="6">+C3/C5</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D8" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>58.886238532110092</v>
       </c>
       <c r="F8" s="6" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>59.501811594202898</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>61.00788643533123</v>
       </c>
       <c r="I8" s="6">
@@ -1382,35 +1394,38 @@
         <v>59.732297063903282</v>
       </c>
       <c r="J8" s="6">
-        <f t="shared" ref="J8:T8" si="5">+J3/J5</f>
+        <f t="shared" ref="J8:T8" si="7">+J3/J5</f>
         <v>62.743624161073818</v>
       </c>
       <c r="K8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>67.447863247863239</v>
       </c>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6">
+        <f t="shared" ref="L8" si="8">+L3/L5</f>
+        <v>62.432307692307688</v>
+      </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>57.660377358490564</v>
       </c>
       <c r="Q8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>56.830689928628075</v>
       </c>
       <c r="R8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>56.639984680199156</v>
       </c>
       <c r="S8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>59.767156862745097</v>
       </c>
       <c r="T8" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>60.941035856573706</v>
       </c>
       <c r="U8" s="6"/>
@@ -1464,11 +1479,11 @@
         <v>44</v>
       </c>
       <c r="C9" s="9" t="e">
-        <f t="shared" ref="C9:D9" si="6">+C13/C3</f>
+        <f t="shared" ref="C9:D9" si="9">+C13/C3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D9" s="9" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E9" s="9">
@@ -1476,51 +1491,54 @@
         <v>0.70884616583055493</v>
       </c>
       <c r="F9" s="9" t="e">
-        <f t="shared" ref="F9:T9" si="7">+F13/F3</f>
+        <f t="shared" ref="F9:T9" si="10">+F13/F3</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G9" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.68241741513167908</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
+        <v>0.68336823599369156</v>
+      </c>
+      <c r="I9" s="9">
+        <f t="shared" si="10"/>
+        <v>0.69061731964724593</v>
+      </c>
+      <c r="J9" s="9">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="I9" s="9">
-        <f t="shared" si="7"/>
-        <v>0.69061731964724593</v>
-      </c>
-      <c r="J9" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
       <c r="K9" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.61319917885292852</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="9">
+        <f t="shared" ref="L9" si="11">+L13/L3</f>
+        <v>0.69862743648505454</v>
+      </c>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="6"/>
       <c r="P9" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.73784592370979807</v>
       </c>
       <c r="Q9" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.72240401320058323</v>
       </c>
       <c r="R9" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.69950705606307506</v>
       </c>
       <c r="S9" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.69326088442348444</v>
       </c>
       <c r="T9" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.69118473869327024</v>
       </c>
       <c r="U9" s="6"/>
@@ -1653,7 +1671,9 @@
       <c r="K11" s="6">
         <v>2182.5</v>
       </c>
-      <c r="L11" s="6"/>
+      <c r="L11" s="6">
+        <v>2576.1</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -1731,7 +1751,9 @@
       <c r="K12" s="6">
         <v>240</v>
       </c>
-      <c r="L12" s="6"/>
+      <c r="L12" s="6">
+        <v>262.39999999999998</v>
+      </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -1803,7 +1825,9 @@
       <c r="G13" s="7">
         <v>2241.4</v>
       </c>
-      <c r="H13" s="7"/>
+      <c r="H13" s="7">
+        <v>2643.2</v>
+      </c>
       <c r="I13" s="7">
         <v>2388.5</v>
       </c>
@@ -1811,7 +1835,9 @@
       <c r="K13" s="7">
         <v>2419.5</v>
       </c>
-      <c r="L13" s="7"/>
+      <c r="L13" s="7">
+        <v>2835.1</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="6"/>
@@ -1889,7 +1915,9 @@
       <c r="G14" s="6">
         <v>1384.6</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6">
+        <v>1544</v>
+      </c>
       <c r="I14" s="6">
         <v>1416.7</v>
       </c>
@@ -1897,7 +1925,9 @@
       <c r="K14" s="6">
         <v>1473.3</v>
       </c>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6">
+        <v>1677.6</v>
+      </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -1967,42 +1997,45 @@
         <v>23</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" ref="C15:H15" si="8">+C13-C14</f>
+        <f t="shared" ref="C15:H15" si="12">+C13-C14</f>
         <v>0</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>834.7</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>856.80000000000018</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>1099.1999999999998</v>
       </c>
       <c r="I15" s="6">
         <f>+I13-I14</f>
         <v>971.8</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" ref="J15:K15" si="9">+J13-J14</f>
+        <f t="shared" ref="J15:L15" si="13">+J13-J14</f>
         <v>0</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>946.2</v>
       </c>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6">
+        <f t="shared" si="13"/>
+        <v>1157.5</v>
+      </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -2011,19 +2044,19 @@
         <v>3304.2</v>
       </c>
       <c r="Q15" s="6">
-        <f t="shared" ref="Q15:T15" si="10">+Q13-Q14</f>
+        <f t="shared" ref="Q15:T15" si="14">+Q13-Q14</f>
         <v>4326.3</v>
       </c>
       <c r="R15" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4055.4999999999991</v>
       </c>
       <c r="S15" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>3930.4000000000005</v>
       </c>
       <c r="T15" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>4302</v>
       </c>
       <c r="U15" s="6"/>
@@ -2085,7 +2118,9 @@
       <c r="G16" s="6">
         <v>550.5</v>
       </c>
-      <c r="H16" s="6"/>
+      <c r="H16" s="6">
+        <v>583.5</v>
+      </c>
       <c r="I16" s="6">
         <v>567.4</v>
       </c>
@@ -2093,7 +2128,9 @@
       <c r="K16" s="6">
         <v>591.5</v>
       </c>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6">
+        <v>627</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -2165,7 +2202,9 @@
       <c r="G17" s="6">
         <v>183.1</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="H17" s="6">
+        <v>237.3</v>
+      </c>
       <c r="I17" s="6">
         <v>216.7</v>
       </c>
@@ -2173,7 +2212,9 @@
       <c r="K17" s="6">
         <v>209.9</v>
       </c>
-      <c r="L17" s="6"/>
+      <c r="L17" s="6">
+        <v>247</v>
+      </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -2245,7 +2286,9 @@
       <c r="G18" s="6">
         <v>122.8</v>
       </c>
-      <c r="H18" s="6"/>
+      <c r="H18" s="6">
+        <v>126.8</v>
+      </c>
       <c r="I18" s="6">
         <v>116</v>
       </c>
@@ -2253,7 +2296,9 @@
       <c r="K18" s="6">
         <v>125.6</v>
       </c>
-      <c r="L18" s="6"/>
+      <c r="L18" s="6">
+        <v>128.19999999999999</v>
+      </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -2325,7 +2370,9 @@
       <c r="G19" s="6">
         <v>5.3</v>
       </c>
-      <c r="H19" s="6"/>
+      <c r="H19" s="6">
+        <v>2.4</v>
+      </c>
       <c r="I19" s="6">
         <v>6.1</v>
       </c>
@@ -2333,7 +2380,9 @@
       <c r="K19" s="6">
         <v>3.7</v>
       </c>
-      <c r="L19" s="6"/>
+      <c r="L19" s="6">
+        <v>6.4</v>
+      </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -2405,7 +2454,9 @@
       <c r="G20" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H20" s="6"/>
+      <c r="H20" s="6">
+        <v>-0.8</v>
+      </c>
       <c r="I20" s="6">
         <v>8.4</v>
       </c>
@@ -2413,7 +2464,9 @@
       <c r="K20" s="6">
         <v>1.4</v>
       </c>
-      <c r="L20" s="6"/>
+      <c r="L20" s="6">
+        <v>16.399999999999999</v>
+      </c>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -2477,63 +2530,66 @@
         <v>29</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" ref="C21:H21" si="11">+C15-SUM(C16:C18)+C19-C20</f>
+        <f t="shared" ref="C21:H21" si="15">+C15-SUM(C16:C18)+C19-C20</f>
         <v>0</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="E21" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>-18.800000000000026</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>0.60000000000020481</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>154.79999999999993</v>
       </c>
       <c r="I21" s="6">
         <f>+I15-SUM(I16:I18)+I19-I20</f>
         <v>69.400000000000034</v>
       </c>
       <c r="J21" s="6">
-        <f t="shared" ref="J21:T22" si="12">+J15-SUM(J16:J18)+J19-J20</f>
+        <f t="shared" ref="J21:T21" si="16">+J15-SUM(J16:J18)+J19-J20</f>
         <v>0</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>21.500000000000046</v>
       </c>
-      <c r="L21" s="6"/>
+      <c r="L21" s="6">
+        <f t="shared" si="16"/>
+        <v>145.29999999999995</v>
+      </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>3304.2</v>
       </c>
       <c r="Q21" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4326.3</v>
       </c>
       <c r="R21" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>4055.4999999999991</v>
       </c>
       <c r="S21" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>190.90000000000018</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>391.89999999999941</v>
       </c>
       <c r="U21" s="6"/>
@@ -2595,7 +2651,9 @@
       <c r="G22" s="6">
         <v>18</v>
       </c>
-      <c r="H22" s="6"/>
+      <c r="H22" s="6">
+        <v>20.100000000000001</v>
+      </c>
       <c r="I22" s="6">
         <v>17.8</v>
       </c>
@@ -2603,7 +2661,9 @@
       <c r="K22" s="6">
         <v>14.9</v>
       </c>
-      <c r="L22" s="6"/>
+      <c r="L22" s="6">
+        <v>10.8</v>
+      </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -2675,7 +2735,9 @@
       <c r="G23" s="6">
         <v>22</v>
       </c>
-      <c r="H23" s="6"/>
+      <c r="H23" s="6">
+        <v>24.1</v>
+      </c>
       <c r="I23" s="6">
         <v>24.2</v>
       </c>
@@ -2683,7 +2745,9 @@
       <c r="K23" s="6">
         <v>18.2</v>
       </c>
-      <c r="L23" s="6"/>
+      <c r="L23" s="6">
+        <v>18.399999999999999</v>
+      </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
@@ -2755,7 +2819,9 @@
       <c r="G24" s="6">
         <v>-9.1</v>
       </c>
-      <c r="H24" s="6"/>
+      <c r="H24" s="6">
+        <v>-2.8</v>
+      </c>
       <c r="I24" s="6">
         <v>-6.3</v>
       </c>
@@ -2763,7 +2829,9 @@
       <c r="K24" s="6">
         <v>-0.1</v>
       </c>
-      <c r="L24" s="6"/>
+      <c r="L24" s="6">
+        <v>7.8</v>
+      </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -2827,63 +2895,66 @@
         <v>33</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" ref="C25:H25" si="13">+C21+C22-C23+C24</f>
+        <f t="shared" ref="C25:H25" si="17">+C21+C22-C23+C24</f>
         <v>0</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="E25" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-21.600000000000026</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>-12.499999999999796</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>147.99999999999991</v>
       </c>
       <c r="I25" s="6">
         <f>+I21+I22-I23+I24</f>
         <v>56.700000000000031</v>
       </c>
       <c r="J25" s="6">
-        <f t="shared" ref="J25:T25" si="14">+J21+J22-J23+J24</f>
+        <f t="shared" ref="J25:T25" si="18">+J21+J22-J23+J24</f>
         <v>0</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>18.100000000000048</v>
       </c>
-      <c r="L25" s="6"/>
+      <c r="L25" s="6">
+        <f t="shared" si="18"/>
+        <v>145.49999999999997</v>
+      </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>3304.2</v>
       </c>
       <c r="Q25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4326.3</v>
       </c>
       <c r="R25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>4055.4999999999991</v>
       </c>
       <c r="S25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>153.00000000000017</v>
       </c>
       <c r="T25" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>367.89999999999935</v>
       </c>
       <c r="U25" s="6"/>
@@ -2945,7 +3016,9 @@
       <c r="G26" s="6">
         <v>-3.4</v>
       </c>
-      <c r="H26" s="6"/>
+      <c r="H26" s="6">
+        <v>52.3</v>
+      </c>
       <c r="I26" s="6">
         <v>12.5</v>
       </c>
@@ -2953,7 +3026,9 @@
       <c r="K26" s="6">
         <v>8</v>
       </c>
-      <c r="L26" s="6"/>
+      <c r="L26" s="6">
+        <v>48.9</v>
+      </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
@@ -3017,42 +3092,45 @@
         <v>35</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" ref="C27:H27" si="15">+C25-C26</f>
+        <f t="shared" ref="C27:H27" si="19">+C25-C26</f>
         <v>0</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="E27" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-8.1000000000000263</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>-9.0999999999997954</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="15"/>
-        <v>0</v>
+        <f t="shared" si="19"/>
+        <v>95.699999999999918</v>
       </c>
       <c r="I27" s="6">
         <f>+I25-I26</f>
         <v>44.200000000000031</v>
       </c>
       <c r="J27" s="6">
-        <f t="shared" ref="J27:K27" si="16">+J25-J26</f>
+        <f t="shared" ref="J27:L27" si="20">+J25-J26</f>
         <v>0</v>
       </c>
       <c r="K27" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10.100000000000048</v>
       </c>
-      <c r="L27" s="6"/>
+      <c r="L27" s="6">
+        <f t="shared" si="20"/>
+        <v>96.599999999999966</v>
+      </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
@@ -3182,37 +3260,63 @@
       <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
-        <v>-0.03</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6">
-        <v>0.17</v>
-      </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+      <c r="C29" s="10" t="e">
+        <f t="shared" ref="C29:J29" si="21">+C27/C30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E29" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F29" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="21"/>
+        <v>0.36935546121188695</v>
+      </c>
+      <c r="I29" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="10" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" s="10">
+        <f>+K27/K30</f>
+        <v>3.8981088382863939E-2</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" ref="L29" si="22">+L27/L30</f>
+        <v>0.37111025739531295</v>
+      </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="6"/>
       <c r="P29" s="10" t="e">
-        <f t="shared" ref="P29:S29" si="17">+P27/P30</f>
+        <f t="shared" ref="P29:S29" si="23">+P27/P30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R29" s="10" t="e">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S29" s="10">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.31998459761263059</v>
       </c>
       <c r="T29" s="10">
@@ -3271,22 +3375,20 @@
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="6">
-        <f>+E27/E29</f>
-        <v>270.00000000000091</v>
-      </c>
+      <c r="E30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6">
-        <f>+I27/I29</f>
-        <v>260.00000000000017</v>
-      </c>
+      <c r="H30" s="6">
+        <v>259.10000000000002</v>
+      </c>
+      <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6">
         <v>259.10000000000002</v>
       </c>
-      <c r="L30" s="6"/>
+      <c r="L30" s="6">
+        <v>260.3</v>
+      </c>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
@@ -3423,7 +3525,9 @@
       <c r="G32" s="8">
         <v>15309</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="8">
+        <v>15309</v>
+      </c>
       <c r="I32" s="8">
         <v>15206</v>
       </c>
@@ -3431,7 +3535,9 @@
       <c r="K32" s="8">
         <v>15463</v>
       </c>
-      <c r="L32" s="8"/>
+      <c r="L32" s="8">
+        <v>15571</v>
+      </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -3570,26 +3676,29 @@
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="9" t="e">
-        <f t="shared" ref="G34:K36" si="18">+G3/C3-1</f>
+        <f t="shared" ref="G34:L36" si="24">+G3/C3-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H34" s="9" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I34" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>7.7649331629950469E-2</v>
       </c>
       <c r="J34" s="9" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K34" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.20130917947937266</v>
       </c>
-      <c r="L34" s="9"/>
+      <c r="L34" s="9">
+        <f t="shared" si="24"/>
+        <v>4.9173970371519271E-2</v>
+      </c>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="6"/>
@@ -3653,26 +3762,29 @@
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="9" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H35" s="9" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I35" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>3.9920159680637557E-3</v>
       </c>
       <c r="J35" s="9" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K35" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>5.8585858585858519E-2</v>
       </c>
-      <c r="L35" s="9"/>
+      <c r="L35" s="9">
+        <f t="shared" si="24"/>
+        <v>6.2248995983935851E-2</v>
+      </c>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="6"/>
@@ -3736,26 +3848,29 @@
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="9" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H36" s="9" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I36" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>6.2385321100917324E-2</v>
       </c>
       <c r="J36" s="9" t="e">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K36" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>5.9782608695652106E-2</v>
       </c>
-      <c r="L36" s="9"/>
+      <c r="L36" s="9">
+        <f t="shared" si="24"/>
+        <v>2.5236593059936974E-2</v>
+      </c>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="6"/>
@@ -3819,26 +3934,29 @@
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="9" t="e">
-        <f t="shared" ref="G37:G39" si="19">+G11/C11-1</f>
+        <f t="shared" ref="G37:G39" si="25">+G11/C11-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H37" s="9" t="e">
-        <f t="shared" ref="H37:H39" si="20">+H11/D11-1</f>
+        <f t="shared" ref="H37:H39" si="26">+H11/D11-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I37" s="9">
-        <f t="shared" ref="I37:I39" si="21">+I11/E11-1</f>
+        <f t="shared" ref="I37:I39" si="27">+I11/E11-1</f>
         <v>4.2898691226369356E-2</v>
       </c>
       <c r="J37" s="9" t="e">
-        <f t="shared" ref="J37:K39" si="22">+J11/F11-1</f>
+        <f t="shared" ref="J37:L39" si="28">+J11/F11-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K37" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L37" s="9"/>
+      <c r="L37" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="6"/>
@@ -3902,26 +4020,29 @@
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="9" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H38" s="9" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I38" s="9">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>0.11075069508804436</v>
       </c>
       <c r="J38" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K38" s="9" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L38" s="9"/>
+      <c r="L38" s="9" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="6"/>
@@ -3985,26 +4106,29 @@
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="11" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="25"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H39" s="11" t="e">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I39" s="11">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>4.9936260934546617E-2</v>
       </c>
       <c r="J39" s="11" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K39" s="11">
         <f>+K13/G13-1</f>
         <v>7.9459266529847472E-2</v>
       </c>
-      <c r="L39" s="9"/>
+      <c r="L39" s="11">
+        <f>+L13/H13-1</f>
+        <v>7.2601392251816055E-2</v>
+      </c>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="6"/>
@@ -4064,28 +4188,28 @@
         <v>49</v>
       </c>
       <c r="C40" s="9" t="e">
-        <f t="shared" ref="C40:H40" si="23">+C15/C13</f>
+        <f t="shared" ref="C40:H40" si="29">+C15/C13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D40" s="9" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E40" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.36691722713086289</v>
       </c>
       <c r="F40" s="9" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G40" s="9">
-        <f t="shared" si="23"/>
+        <f t="shared" si="29"/>
         <v>0.38226108682073712</v>
       </c>
-      <c r="H40" s="9" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
+      <c r="H40" s="9">
+        <f t="shared" si="29"/>
+        <v>0.41585956416464886</v>
       </c>
       <c r="I40" s="9">
         <f>+I15/I13</f>
@@ -4099,7 +4223,10 @@
         <f>+K15/K13</f>
         <v>0.39107253564786115</v>
       </c>
-      <c r="L40" s="9"/>
+      <c r="L40" s="9">
+        <f>+L15/L13</f>
+        <v>0.40827484039363693</v>
+      </c>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="6"/>
@@ -4159,28 +4286,28 @@
         <v>50</v>
       </c>
       <c r="C41" s="9" t="e">
-        <f t="shared" ref="C41:H41" si="24">+C21/C13</f>
+        <f t="shared" ref="C41:H41" si="30">+C21/C13</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D41" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E41" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>-8.2640995208580707E-3</v>
       </c>
       <c r="F41" s="9" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G41" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="30"/>
         <v>2.6768983670929098E-4</v>
       </c>
-      <c r="H41" s="9" t="e">
-        <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
+      <c r="H41" s="9">
+        <f t="shared" si="30"/>
+        <v>5.8565375302663411E-2</v>
       </c>
       <c r="I41" s="9">
         <f>+I21/I13</f>
@@ -4194,7 +4321,10 @@
         <f>+K21/K13</f>
         <v>8.8861334986567661E-3</v>
       </c>
-      <c r="L41" s="9"/>
+      <c r="L41" s="9">
+        <f>+L21/L13</f>
+        <v>5.1250396811399937E-2</v>
+      </c>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="6"/>
@@ -4254,28 +4384,28 @@
         <v>51</v>
       </c>
       <c r="C42" s="9" t="e">
-        <f t="shared" ref="C42:H42" si="25">+C26/C25</f>
+        <f t="shared" ref="C42:H42" si="31">+C26/C25</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D42" s="9" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E42" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.62499999999999922</v>
       </c>
       <c r="F42" s="9" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G42" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0.27200000000000446</v>
       </c>
-      <c r="H42" s="9" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+      <c r="H42" s="9">
+        <f t="shared" si="31"/>
+        <v>0.35337837837837854</v>
       </c>
       <c r="I42" s="9">
         <f>+I26/I25</f>
@@ -4289,7 +4419,10 @@
         <f>+K26/K25</f>
         <v>0.44198895027624191</v>
       </c>
-      <c r="L42" s="9"/>
+      <c r="L42" s="9">
+        <f>+L26/L25</f>
+        <v>0.33608247422680421</v>
+      </c>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
       <c r="O42" s="6"/>

--- a/ZAL.DE.xlsx
+++ b/ZAL.DE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA1C4D1-E3F0-4FB4-A4FD-263B4C724982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CCDC61-3572-4300-8807-35C42A0B3FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{98C648A9-E26D-4C03-ABFB-F82A267C3134}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" activeTab="1" xr2:uid="{98C648A9-E26D-4C03-ABFB-F82A267C3134}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -253,13 +253,19 @@
     <numFmt numFmtId="166" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="167" formatCode="#,##0.00;\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -323,25 +329,28 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -680,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FBCB31F-2D56-46E3-B670-4DC6239CE78A}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -703,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>23.72</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -713,8 +722,8 @@
       <c r="I3" s="3">
         <v>260.3</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>65</v>
+      <c r="J3" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -726,7 +735,7 @@
       </c>
       <c r="I4" s="3">
         <f>+I2*I3</f>
-        <v>6174.3159999999998</v>
+        <v>5992.1059999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -737,10 +746,11 @@
         <v>7</v>
       </c>
       <c r="I5" s="3">
-        <v>2183</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>65</v>
+        <f>1319.3+117.7</f>
+        <v>1437</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -748,11 +758,11 @@
         <v>8</v>
       </c>
       <c r="I6" s="3">
-        <f>475.5+11.3+399+206.4</f>
-        <v>1092.2</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>65</v>
+        <f>0+268.3+478.3+8.3</f>
+        <v>754.9</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -761,7 +771,7 @@
       </c>
       <c r="I7" s="3">
         <f>+I4-I5+I6</f>
-        <v>5083.5159999999996</v>
+        <v>5310.0059999999994</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -801,11 +811,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{055B6BCF-56F9-4A6F-A0B9-70CA233D4BF4}">
   <dimension ref="A1:BM464"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -901,7 +911,9 @@
       <c r="L3" s="3">
         <v>4058.1</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="3">
+        <v>4209.6000000000004</v>
+      </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3">
@@ -993,7 +1005,9 @@
       <c r="L4" s="3">
         <v>52.9</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="3">
+        <v>61.4</v>
+      </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3">
@@ -1085,7 +1099,9 @@
       <c r="L5" s="3">
         <v>65</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="3">
+        <v>68.5</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3">
@@ -1190,10 +1206,13 @@
         <v>75.299618320610691</v>
       </c>
       <c r="L6" s="3">
-        <f t="shared" ref="L6" si="1">+L3/L4</f>
+        <f t="shared" ref="L6:M6" si="1">+L3/L4</f>
         <v>76.71266540642722</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="3">
+        <f t="shared" si="1"/>
+        <v>68.560260586319231</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3">
@@ -1303,10 +1322,13 @@
         <v>1.116412213740458</v>
       </c>
       <c r="L7" s="3">
-        <f t="shared" ref="L7" si="5">+L5/L4</f>
+        <f t="shared" ref="L7:M7" si="5">+L5/L4</f>
         <v>1.2287334593572778</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="3">
+        <f t="shared" si="5"/>
+        <v>1.1156351791530945</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3">
@@ -1416,10 +1438,13 @@
         <v>67.447863247863239</v>
       </c>
       <c r="L8" s="3">
-        <f t="shared" ref="L8" si="8">+L3/L5</f>
+        <f t="shared" ref="L8:M8" si="8">+L3/L5</f>
         <v>62.432307692307688</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="3">
+        <f t="shared" si="8"/>
+        <v>61.454014598540148</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3">
@@ -1529,10 +1554,13 @@
         <v>0.61319917885292852</v>
       </c>
       <c r="L9" s="8">
-        <f t="shared" ref="L9" si="11">+L13/L3</f>
+        <f t="shared" ref="L9:M9" si="11">+L13/L3</f>
         <v>0.69862743648505454</v>
       </c>
-      <c r="M9" s="8"/>
+      <c r="M9" s="8">
+        <f t="shared" si="11"/>
+        <v>0.71755036107943737</v>
+      </c>
       <c r="N9" s="8"/>
       <c r="O9" s="3"/>
       <c r="P9" s="8">
@@ -1688,7 +1716,9 @@
       <c r="L11" s="3">
         <v>2576.1</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3">
+        <v>2761.7</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
@@ -1768,7 +1798,9 @@
       <c r="L12" s="3">
         <v>262.39999999999998</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3">
+        <v>277.10000000000002</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
@@ -1852,7 +1884,9 @@
       <c r="L13" s="9">
         <v>2835.1</v>
       </c>
-      <c r="M13" s="9"/>
+      <c r="M13" s="9">
+        <v>3020.6</v>
+      </c>
       <c r="N13" s="9"/>
       <c r="O13" s="3"/>
       <c r="P13" s="9">
@@ -1942,7 +1976,9 @@
       <c r="L14" s="3">
         <v>1677.6</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3">
+        <v>1825.4</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
       <c r="P14" s="3">
@@ -2039,7 +2075,7 @@
         <v>971.8</v>
       </c>
       <c r="J15" s="3">
-        <f t="shared" ref="J15:L15" si="13">+J13-J14</f>
+        <f t="shared" ref="J15:M15" si="13">+J13-J14</f>
         <v>0</v>
       </c>
       <c r="K15" s="3">
@@ -2050,7 +2086,10 @@
         <f t="shared" si="13"/>
         <v>1157.5</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="3">
+        <f t="shared" si="13"/>
+        <v>1195.1999999999998</v>
+      </c>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
       <c r="P15" s="3">
@@ -2145,7 +2184,9 @@
       <c r="L16" s="3">
         <v>627</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="3">
+        <v>734.9</v>
+      </c>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
@@ -2229,7 +2270,9 @@
       <c r="L17" s="3">
         <v>247</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3">
+        <v>280.5</v>
+      </c>
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
       <c r="P17" s="3"/>
@@ -2313,7 +2356,9 @@
       <c r="L18" s="3">
         <v>128.19999999999999</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="3">
+        <v>130.69999999999999</v>
+      </c>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
@@ -2397,7 +2442,9 @@
       <c r="L19" s="3">
         <v>6.4</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="3">
+        <v>12.9</v>
+      </c>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
@@ -2481,7 +2528,9 @@
       <c r="L20" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="3">
+        <v>12.9</v>
+      </c>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
       <c r="P20" s="3"/>
@@ -2583,7 +2632,10 @@
         <f t="shared" si="16"/>
         <v>145.29999999999995</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="3">
+        <f t="shared" si="16"/>
+        <v>49.099999999999909</v>
+      </c>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
       <c r="P21" s="3">
@@ -2678,7 +2730,9 @@
       <c r="L22" s="3">
         <v>10.8</v>
       </c>
-      <c r="M22" s="3"/>
+      <c r="M22" s="3">
+        <v>5.3</v>
+      </c>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
@@ -2762,7 +2816,9 @@
       <c r="L23" s="3">
         <v>18.399999999999999</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="3">
+        <v>18</v>
+      </c>
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
       <c r="P23" s="3"/>
@@ -2846,7 +2902,9 @@
       <c r="L24" s="3">
         <v>7.8</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="3">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
       <c r="P24" s="3"/>
@@ -2948,7 +3006,10 @@
         <f t="shared" si="18"/>
         <v>145.49999999999997</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="3">
+        <f t="shared" si="18"/>
+        <v>37.499999999999908</v>
+      </c>
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
       <c r="P25" s="3">
@@ -3043,7 +3104,9 @@
       <c r="L26" s="3">
         <v>48.9</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="3">
+        <v>25</v>
+      </c>
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
       <c r="P26" s="3"/>
@@ -3134,7 +3197,7 @@
         <v>44.200000000000031</v>
       </c>
       <c r="J27" s="3">
-        <f t="shared" ref="J27:L27" si="20">+J25-J26</f>
+        <f t="shared" ref="J27:M27" si="20">+J25-J26</f>
         <v>0</v>
       </c>
       <c r="K27" s="3">
@@ -3145,7 +3208,10 @@
         <f t="shared" si="20"/>
         <v>96.599999999999966</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="3">
+        <f t="shared" si="20"/>
+        <v>12.499999999999908</v>
+      </c>
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
       <c r="P27" s="3"/>
@@ -3311,11 +3377,14 @@
         <v>3.8981088382863939E-2</v>
       </c>
       <c r="L29" s="10">
-        <f t="shared" ref="L29" si="22">+L27/L30</f>
+        <f t="shared" ref="L29:M29" si="22">+L27/L30</f>
         <v>0.37111025739531295</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="M29" s="10">
+        <f t="shared" si="22"/>
+        <v>4.8021513638109518E-2</v>
+      </c>
+      <c r="N29" s="10"/>
       <c r="O29" s="3"/>
       <c r="P29" s="10" t="e">
         <f t="shared" ref="P29:S29" si="23">+P27/P30</f>
@@ -3403,7 +3472,9 @@
       <c r="L30" s="3">
         <v>260.3</v>
       </c>
-      <c r="M30" s="3"/>
+      <c r="M30" s="3">
+        <v>260.3</v>
+      </c>
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
       <c r="P30" s="3"/>
